--- a/feilong-office/feilong-office-excel-loxia/src/test/resources/loxia/consultant/consultant-list-export.xlsx
+++ b/feilong-office/feilong-office-excel-loxia/src/test/resources/loxia/consultant/consultant-list-export.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feilong/workspace/feilong/feilong-office/feilong-office-excel-loxia/src/test/resources/loxia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feilong/workspace/feilong/feilong/feilong-office/feilong-office-excel-loxia/src/test/resources/loxia/consultant/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308F9C1C-CCB5-324E-9F4E-C65D6111A48C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="10580"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="10580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jumbo</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -240,8 +241,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,14 +697,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -716,7 +720,7 @@
     <col min="9" max="9" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -729,7 +733,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -740,7 +744,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -769,7 +773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>10</v>
       </c>
